--- a/Coordinate points.xlsx
+++ b/Coordinate points.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongdong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dongdong\Desktop\Durian评估标准\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252ED02B-55BA-4CA6-89C3-11E82998F21E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B198E-7487-4D7F-88CB-A70F5165A35C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="624" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5952" yWindow="2568" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <name val="Segoe UI Semibold"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -89,12 +87,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -104,19 +96,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3DF37A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,22 +133,22 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -159,6 +157,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF3DF37A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,20 +439,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -467,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,7 +490,7 @@
         <v>36.078474</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
